--- a/Data Files/TripInfo.xlsx
+++ b/Data Files/TripInfo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruchira.weerakkody\git\WebPOC\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6BBB6AF-A2E1-4DA9-A4D5-8473444E8C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7D72A-ABCD-4E47-B702-452EE25279F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Country&amp;Trip" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>GMDD</t>
   </si>
@@ -48,6 +49,168 @@
   </si>
   <si>
     <t>MPMG</t>
+  </si>
+  <si>
+    <t>TripName</t>
+  </si>
+  <si>
+    <t>Ultimate Galapagos: Central Islands (Grand Daphne)</t>
+  </si>
+  <si>
+    <t>RuchiraTest</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>TouRegion</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>HREF</t>
+  </si>
+  <si>
+    <t>/botswana</t>
+  </si>
+  <si>
+    <t>Comoros Island</t>
+  </si>
+  <si>
+    <t>/comoros</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>/djibouti</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>/egypt</t>
+  </si>
+  <si>
+    <t>Eswatini (Swaziland)</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>/ethiopia</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>/kenya</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>/lesotho</t>
+  </si>
+  <si>
+    <t>/swaziland</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>/madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>/malawi</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>/morocco</t>
+  </si>
+  <si>
+    <t>/mozambique</t>
+  </si>
+  <si>
+    <t>/namibia</t>
+  </si>
+  <si>
+    <t>/rwanda</t>
+  </si>
+  <si>
+    <t>/seychelles</t>
+  </si>
+  <si>
+    <t>/south-africa</t>
+  </si>
+  <si>
+    <t>/tanzania</t>
+  </si>
+  <si>
+    <t>/tunisia</t>
+  </si>
+  <si>
+    <t>/uganda</t>
+  </si>
+  <si>
+    <t>/zambia</t>
+  </si>
+  <si>
+    <t>/zanzibar</t>
+  </si>
+  <si>
+    <t>/zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -103,11 +266,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63632602-CE6E-4EDA-95D5-537FAA0D2511}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{63632602-CE6E-4EDA-95D5-537FAA0D2511}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63632602-CE6E-4EDA-95D5-537FAA0D2511}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{63632602-CE6E-4EDA-95D5-537FAA0D2511}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{496B402C-2267-44BF-8790-275CCF6A7549}" name="ID"/>
     <tableColumn id="2" xr3:uid="{B079BB3B-349B-4865-A903-6337C175D62B}" name="TripCode"/>
+    <tableColumn id="3" xr3:uid="{3BEF4C91-0BE6-4029-9343-901133508225}" name="TripName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E415542B-5232-4FBB-BE11-1D79E4E87F7B}" name="Table2" displayName="Table2" ref="A1:G25" totalsRowShown="0">
+  <autoFilter ref="A1:G25" xr:uid="{E415542B-5232-4FBB-BE11-1D79E4E87F7B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BE1BED2C-EBF6-409F-ACD2-AC1830255EA9}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{A8F3395B-0EE3-4904-B962-270E7472023E}" name="TouRegion"/>
+    <tableColumn id="3" xr3:uid="{1CF1102D-51A3-4811-A73A-3776B4FD5964}" name="Region"/>
+    <tableColumn id="4" xr3:uid="{F4536BC8-044E-40B6-AC1E-55CBC241651F}" name="Country"/>
+    <tableColumn id="5" xr3:uid="{0F298F7B-246F-4B33-A07F-8E148DE4ED23}" name="State"/>
+    <tableColumn id="6" xr3:uid="{95A2952F-542C-4C08-84A1-84D7E9D312C9}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{F3B216F7-7ACE-45A4-8C4F-ACFA55BE9FC3}" name="HREF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -376,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,28 +567,458 @@
     <col min="2" max="2" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9C78F-AABF-4278-B45D-E77F3A39D438}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
